--- a/CountryData/Mexico/Mexico_Workbook.xlsx
+++ b/CountryData/Mexico/Mexico_Workbook.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Mexico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D4DC24E3-888E-4A8A-96AC-1411E17A5871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:40009_{D4DC24E3-888E-4A8A-96AC-1411E17A5871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{986CF920-CD95-4FD5-8949-2372517A1CD2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mexico_Popup" sheetId="1" r:id="rId1"/>
@@ -89,6 +89,51 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Sonora Mining Cluster </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chihuahua Mining Cluster</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zacatecas Mining Cluster </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <u/>
         <sz val="11"/>
@@ -102,12 +147,12 @@
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
+        <color theme="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>The Government of Zacatecas brings closer Mining Suppliers and Companies Operating in the Mexican State</t>
+      <t xml:space="preserve">The Government of Zacatecas brings closer Mining Suppliers and Companies Operating in the Mexican State </t>
     </r>
     <r>
       <rPr>
@@ -117,7 +162,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Spanish) </t>
+      <t>(Spanish)</t>
     </r>
   </si>
   <si>
@@ -140,7 +185,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Local Supply Law presented to Presidents of business organizations</t>
+      <t xml:space="preserve">Local Supply Law presented to Presidents of business organizations </t>
     </r>
     <r>
       <rPr>
@@ -150,7 +195,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Spanish) </t>
+      <t xml:space="preserve">(Spanish) </t>
     </r>
   </si>
   <si>
@@ -162,7 +207,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Gaytán et al. (2018) –</t>
+      <t xml:space="preserve">Gaytán et al. (2018) – </t>
     </r>
     <r>
       <rPr>
@@ -173,7 +218,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Mining and productive chains in Mexico: a comparative study using input-output state models </t>
+      <t xml:space="preserve">Mining and productive chains in Mexico: a comparative study using input-output state models </t>
     </r>
     <r>
       <rPr>
@@ -186,56 +231,11 @@
       <t>(Spanish)</t>
     </r>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sonora Mining Cluster </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Spanish)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Zacatecas Mining Cluster</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Chihuahua Mining Cluster</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish)</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -837,7 +837,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -879,6 +879,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1236,8 +1243,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C27"/>
@@ -1249,6 +1256,9 @@
     <col min="2" max="2" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+    </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
@@ -1327,7 +1337,7 @@
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1341,78 +1351,80 @@
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="16"/>
-    </row>
-    <row r="18" spans="1:2" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="16"/>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=MX"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=MX"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=MX"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/mexico"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/138/export-basket"/>
-    <hyperlink ref="A13" r:id="rId7" display="http://ordenjuridico.gob.mx/Documentos/Federal/pdf/wo98027.pdf"/>
-    <hyperlink ref="A14" r:id="rId8" display="http://dof.gob.mx/nota_detalle.php?codigo=5327463&amp;fecha=20/12/2013&amp;print=true"/>
-    <hyperlink ref="A17" r:id="rId9" display="https://integraa.org/2019/12/presentan-a-presidentes-de-organismos-empresariales-la-ley-de-proveeduria-local/?utm_campaign=shareaholic&amp;utm_medium=twitter&amp;utm_source=socialnetwork"/>
-    <hyperlink ref="A18" r:id="rId10" display="https://ljz.mx/2021/06/15/acerca-godezac-a-proveedores-locales-y-empresas-mineras/?__cf_chl_jschl_tk__=4d22eae8f675b21aad1b0bdb52411781ef6f3273-1624304600-0-AZIX0672cf99hDJyjk0Z2sM4R07HT9JMZ_msruy-3U0efJnLwiuvtHBB70lgJxuJZHtcksDGPS5S_0jedKYPUg_-MxHmBszNI0amAjASUDOfL9GTK_Sc0_-RsgbjmKPJf6UXOhwySej9OkMo6ak_kYSHUrqMN8GkrZSjHGe9wwGVMSny-gJpRAODIDcfdVxHeTZjt7Mdu5Mkc1K9FcGNfb6BI6_SJuyFD6MuXew6W_uKUToX8S8b2tua7MUuGyuzeABt6MqW7PvHYTEjT8zZaBO4oGRWUY7_wrk2QfgsJnL2E6EeCrayg_xtyxW-YqlDBLUoH32XXb50mt9gbizbc-51D9wV-mjNZIIr4pv4prQ7X7CwPLmGu8Iv2-xu6Pc2HHZz3xbMmj2eGRA1GM9LfT0emVRyWHt7UukCsHwxI9T2kfXC_yYdMx_dvYLdTm0CESlKIIOGp3fyhCTTIiQ0TiHzTtEp4hZiJBshWaXm_i5zcwjPNM3AwQPP0MBVZeCU9Ar5eb4cEM9B6EZd3SxA_XxoOK2D9Xsc2BuBAmCQlA_a"/>
-    <hyperlink ref="A21" r:id="rId11" display="http://www.scielo.org.bo/scielo.php?pid=S2415-06222018000200002&amp;script=sci_abstract&amp;tlng=en"/>
-    <hyperlink ref="A24" r:id="rId12" display="https://www.clusterminerosonora.com.mx/"/>
-    <hyperlink ref="A25" r:id="rId13" display="https://clusmin.org/"/>
-    <hyperlink ref="A26" r:id="rId14" display="https://www.clumin.org/"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=MX" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=MX" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=MX" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/mexico" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/138/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A24" r:id="rId10" display="https://www.clusterminerosonora.com.mx/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A25" r:id="rId11" display="https://clusmin.org/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A26" r:id="rId12" display="https://www.clumin.org/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{CDB0186B-65C8-4268-AC14-1F23034AA7FD}"/>
+    <hyperlink ref="A17" r:id="rId14" xr:uid="{0A027ABE-F9FF-422B-B171-B7274E332CD6}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <webPublishItems count="1">
-    <webPublishItem id="14958" divId="Mexico_Workbook_14958" sourceType="range" sourceRef="A1:C27" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Mexico\Mexico_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="6851" divId="Mexico_Workbook_6851" sourceType="range" sourceRef="A1:C27" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Mexico\Mexico_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>